--- a/Synthetic_data_encoded_5K.xlsx
+++ b/Synthetic_data_encoded_5K.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N112"/>
+  <dimension ref="A1:O115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,11 @@
           <t>prefer_to_use_secured_5g</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>happy_to_provide_emails</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -548,6 +553,9 @@
       <c r="N2" t="n">
         <v>4</v>
       </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -592,6 +600,9 @@
       <c r="N3" t="n">
         <v>1</v>
       </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -636,6 +647,9 @@
       <c r="N4" t="n">
         <v>4</v>
       </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -680,6 +694,9 @@
       <c r="N5" t="n">
         <v>4</v>
       </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -724,6 +741,9 @@
       <c r="N6" t="n">
         <v>4</v>
       </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -768,6 +788,9 @@
       <c r="N7" t="n">
         <v>1</v>
       </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -812,6 +835,9 @@
       <c r="N8" t="n">
         <v>1</v>
       </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -856,6 +882,9 @@
       <c r="N9" t="n">
         <v>4</v>
       </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -900,6 +929,9 @@
       <c r="N10" t="n">
         <v>4</v>
       </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -944,6 +976,9 @@
       <c r="N11" t="n">
         <v>4</v>
       </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -988,6 +1023,9 @@
       <c r="N12" t="n">
         <v>4</v>
       </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1032,6 +1070,9 @@
       <c r="N13" t="n">
         <v>4</v>
       </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1076,6 +1117,9 @@
       <c r="N14" t="n">
         <v>4</v>
       </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1120,6 +1164,9 @@
       <c r="N15" t="n">
         <v>4</v>
       </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1164,6 +1211,9 @@
       <c r="N16" t="n">
         <v>4</v>
       </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1208,6 +1258,9 @@
       <c r="N17" t="n">
         <v>4</v>
       </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1252,6 +1305,9 @@
       <c r="N18" t="n">
         <v>4</v>
       </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1296,6 +1352,9 @@
       <c r="N19" t="n">
         <v>4</v>
       </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1340,6 +1399,9 @@
       <c r="N20" t="n">
         <v>4</v>
       </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1384,6 +1446,9 @@
       <c r="N21" t="n">
         <v>4</v>
       </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1428,6 +1493,9 @@
       <c r="N22" t="n">
         <v>4</v>
       </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1472,6 +1540,9 @@
       <c r="N23" t="n">
         <v>4</v>
       </c>
+      <c r="O23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1516,6 +1587,9 @@
       <c r="N24" t="n">
         <v>1</v>
       </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1560,6 +1634,9 @@
       <c r="N25" t="n">
         <v>4</v>
       </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1604,6 +1681,9 @@
       <c r="N26" t="n">
         <v>4</v>
       </c>
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1648,22 +1728,25 @@
       <c r="N27" t="n">
         <v>4</v>
       </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>2</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
         <v>2</v>
@@ -1672,39 +1755,42 @@
         <v>2</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>4</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B29" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -1716,45 +1802,48 @@
         <v>2</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>4</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C30" t="n">
         <v>10</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -1763,13 +1852,13 @@
         <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>3</v>
@@ -1779,6 +1868,9 @@
       </c>
       <c r="N30" t="n">
         <v>4</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1786,19 +1878,19 @@
         <v>2</v>
       </c>
       <c r="B31" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -1810,36 +1902,39 @@
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>4</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C32" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>2</v>
@@ -1851,27 +1946,30 @@
         <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" t="n">
         <v>8</v>
@@ -1880,7 +1978,7 @@
         <v>7</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>2</v>
@@ -1892,42 +1990,45 @@
         <v>2</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N33" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B34" t="n">
         <v>8</v>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" t="n">
         <v>2</v>
@@ -1939,21 +2040,24 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
+        <v>4</v>
+      </c>
+      <c r="O34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1965,7 +2069,7 @@
         <v>8</v>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
@@ -1974,42 +2078,45 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
@@ -2018,31 +2125,34 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>4</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2053,7 +2163,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -2068,7 +2178,7 @@
         <v>2</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -2077,16 +2187,19 @@
         <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>4</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -2112,7 +2225,7 @@
         <v>2</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -2121,15 +2234,18 @@
         <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
+        <v>4</v>
+      </c>
+      <c r="O38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2144,7 +2260,7 @@
         <v>10</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
@@ -2159,10 +2275,10 @@
         <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
         <v>1</v>
@@ -2174,6 +2290,9 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
+        <v>1</v>
+      </c>
+      <c r="O39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,16 +2301,16 @@
         <v>2</v>
       </c>
       <c r="B40" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
         <v>10</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
         <v>2</v>
@@ -2203,22 +2322,25 @@
         <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -2229,13 +2351,13 @@
         <v>8</v>
       </c>
       <c r="C41" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
         <v>2</v>
@@ -2250,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
         <v>4</v>
@@ -2263,6 +2385,9 @@
       </c>
       <c r="N41" t="n">
         <v>4</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2270,16 +2395,16 @@
         <v>2</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
         <v>2</v>
@@ -2294,19 +2419,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>4</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2314,10 +2442,10 @@
         <v>2</v>
       </c>
       <c r="B43" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
@@ -2335,33 +2463,36 @@
         <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>4</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -2379,39 +2510,42 @@
         <v>3</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>4</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
         <v>2</v>
@@ -2423,22 +2557,25 @@
         <v>3</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>4</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -2446,13 +2583,13 @@
         <v>2</v>
       </c>
       <c r="B46" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C46" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
@@ -2464,25 +2601,28 @@
         <v>2</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>4</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2493,7 +2633,7 @@
         <v>8</v>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
@@ -2502,19 +2642,19 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" t="n">
         <v>4</v>
@@ -2526,6 +2666,9 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
+        <v>4</v>
+      </c>
+      <c r="O47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2534,10 +2677,10 @@
         <v>2</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
@@ -2546,22 +2689,22 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -2570,42 +2713,45 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -2615,6 +2761,9 @@
       </c>
       <c r="N49" t="n">
         <v>4</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2625,16 +2774,16 @@
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -2646,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
         <v>4</v>
@@ -2659,23 +2808,26 @@
       </c>
       <c r="N50" t="n">
         <v>4</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
         <v>2</v>
@@ -2687,10 +2839,10 @@
         <v>3</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
         <v>4</v>
@@ -2703,6 +2855,9 @@
       </c>
       <c r="N51" t="n">
         <v>4</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2713,7 +2868,7 @@
         <v>8</v>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
@@ -2722,7 +2877,7 @@
         <v>2</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -2734,39 +2889,42 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B53" t="n">
         <v>8</v>
       </c>
       <c r="C53" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -2778,30 +2936,33 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N53" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C54" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
@@ -2810,7 +2971,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -2822,10 +2983,10 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -2835,6 +2996,9 @@
       </c>
       <c r="N54" t="n">
         <v>4</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2845,31 +3009,31 @@
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -2879,17 +3043,20 @@
       </c>
       <c r="N55" t="n">
         <v>4</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B56" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -2901,10 +3068,10 @@
         <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -2913,7 +3080,7 @@
         <v>1</v>
       </c>
       <c r="K56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -2923,29 +3090,32 @@
       </c>
       <c r="N56" t="n">
         <v>4</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
         <v>2</v>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
         <v>3</v>
@@ -2954,19 +3124,22 @@
         <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
       </c>
       <c r="N57" t="n">
         <v>4</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2974,16 +3147,16 @@
         <v>2</v>
       </c>
       <c r="B58" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D58" t="n">
         <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58" t="n">
         <v>2</v>
@@ -2995,7 +3168,7 @@
         <v>3</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -3004,24 +3177,27 @@
         <v>4</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
       </c>
       <c r="N58" t="n">
         <v>4</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B59" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
@@ -3055,6 +3231,9 @@
       </c>
       <c r="N59" t="n">
         <v>4</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -3062,19 +3241,19 @@
         <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C60" t="n">
         <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -3083,22 +3262,25 @@
         <v>3</v>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
       </c>
       <c r="N60" t="n">
         <v>4</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3106,19 +3288,19 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61" t="n">
         <v>2</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -3127,39 +3309,42 @@
         <v>3</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
       </c>
       <c r="N61" t="n">
         <v>4</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D62" t="n">
         <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" t="n">
         <v>2</v>
@@ -3171,33 +3356,36 @@
         <v>3</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
       </c>
       <c r="N62" t="n">
         <v>4</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>1</v>
@@ -3215,10 +3403,10 @@
         <v>3</v>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -3227,21 +3415,24 @@
         <v>1</v>
       </c>
       <c r="M63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
+        <v>4</v>
+      </c>
+      <c r="O63" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D64" t="n">
         <v>1</v>
@@ -3256,36 +3447,39 @@
         <v>2</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N64" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B65" t="n">
         <v>8</v>
       </c>
       <c r="C65" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D65" t="n">
         <v>1</v>
@@ -3300,10 +3494,10 @@
         <v>2</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -3319,6 +3513,9 @@
       </c>
       <c r="N65" t="n">
         <v>4</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -3329,13 +3526,13 @@
         <v>8</v>
       </c>
       <c r="C66" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D66" t="n">
         <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
         <v>2</v>
@@ -3347,13 +3544,13 @@
         <v>3</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L66" t="n">
         <v>1</v>
@@ -3363,11 +3560,14 @@
       </c>
       <c r="N66" t="n">
         <v>4</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B67" t="n">
         <v>8</v>
@@ -3379,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
         <v>2</v>
@@ -3391,22 +3591,25 @@
         <v>3</v>
       </c>
       <c r="I67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
       </c>
       <c r="N67" t="n">
         <v>4</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -3414,7 +3617,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C68" t="n">
         <v>10</v>
@@ -3435,22 +3638,25 @@
         <v>3</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
       </c>
       <c r="N68" t="n">
         <v>4</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -3467,7 +3673,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
         <v>2</v>
@@ -3476,25 +3682,28 @@
         <v>2</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -3502,13 +3711,13 @@
         <v>2</v>
       </c>
       <c r="B70" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
         <v>2</v>
@@ -3520,25 +3729,28 @@
         <v>2</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N70" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -3549,40 +3761,43 @@
         <v>8</v>
       </c>
       <c r="C71" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" t="n">
         <v>2</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
       </c>
       <c r="N71" t="n">
         <v>4</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3593,19 +3808,19 @@
         <v>8</v>
       </c>
       <c r="C72" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
         <v>2</v>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3614,39 +3829,42 @@
         <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N72" t="n">
         <v>4</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B73" t="n">
         <v>8</v>
       </c>
       <c r="C73" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -3655,10 +3873,10 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K73" t="n">
         <v>0</v>
@@ -3671,6 +3889,9 @@
       </c>
       <c r="N73" t="n">
         <v>4</v>
+      </c>
+      <c r="O73" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -3681,7 +3902,7 @@
         <v>8</v>
       </c>
       <c r="C74" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D74" t="n">
         <v>1</v>
@@ -3690,7 +3911,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -3699,22 +3920,25 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M74" t="n">
         <v>2</v>
       </c>
       <c r="N74" t="n">
         <v>4</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -3725,10 +3949,10 @@
         <v>8</v>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
         <v>1</v>
@@ -3740,25 +3964,28 @@
         <v>2</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J75" t="n">
         <v>1</v>
       </c>
       <c r="K75" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M75" t="n">
         <v>2</v>
       </c>
       <c r="N75" t="n">
         <v>4</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3769,10 +3996,10 @@
         <v>8</v>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E76" t="n">
         <v>1</v>
@@ -3784,24 +4011,27 @@
         <v>2</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K76" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M76" t="n">
         <v>2</v>
       </c>
       <c r="N76" t="n">
+        <v>4</v>
+      </c>
+      <c r="O76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3810,10 +4040,10 @@
         <v>0</v>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>1</v>
@@ -3822,7 +4052,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3837,16 +4067,19 @@
         <v>2</v>
       </c>
       <c r="K77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N77" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3854,16 +4087,16 @@
         <v>2</v>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C78" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D78" t="n">
         <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78" t="n">
         <v>2</v>
@@ -3875,66 +4108,72 @@
         <v>3</v>
       </c>
       <c r="I78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
       </c>
       <c r="N78" t="n">
         <v>4</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
         <v>2</v>
       </c>
       <c r="K79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M79" t="n">
         <v>0</v>
       </c>
       <c r="N79" t="n">
         <v>4</v>
+      </c>
+      <c r="O79" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3942,10 +4181,10 @@
         <v>2</v>
       </c>
       <c r="B80" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D80" t="n">
         <v>1</v>
@@ -3960,25 +4199,28 @@
         <v>2</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M80" t="n">
         <v>0</v>
       </c>
       <c r="N80" t="n">
         <v>4</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3986,16 +4228,16 @@
         <v>2</v>
       </c>
       <c r="B81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D81" t="n">
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
         <v>2</v>
@@ -4010,7 +4252,7 @@
         <v>3</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K81" t="n">
         <v>4</v>
@@ -4023,6 +4265,9 @@
       </c>
       <c r="N81" t="n">
         <v>4</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -4033,13 +4278,13 @@
         <v>8</v>
       </c>
       <c r="C82" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="n">
         <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
         <v>2</v>
@@ -4051,21 +4296,24 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
         <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M82" t="n">
         <v>0</v>
       </c>
       <c r="N82" t="n">
+        <v>4</v>
+      </c>
+      <c r="O82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4074,10 +4322,10 @@
         <v>2</v>
       </c>
       <c r="B83" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C83" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>1</v>
@@ -4092,16 +4340,16 @@
         <v>2</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L83" t="n">
         <v>1</v>
@@ -4111,17 +4359,20 @@
       </c>
       <c r="N83" t="n">
         <v>4</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B84" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C84" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D84" t="n">
         <v>1</v>
@@ -4136,25 +4387,28 @@
         <v>2</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K84" t="n">
         <v>1</v>
       </c>
       <c r="L84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="O84" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -4162,16 +4416,16 @@
         <v>2</v>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C85" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
         <v>2</v>
@@ -4180,25 +4434,28 @@
         <v>2</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
       </c>
       <c r="N85" t="n">
         <v>4</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4206,10 +4463,10 @@
         <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D86" t="n">
         <v>1</v>
@@ -4224,7 +4481,7 @@
         <v>2</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -4236,13 +4493,16 @@
         <v>1</v>
       </c>
       <c r="L86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -4253,7 +4513,7 @@
         <v>8</v>
       </c>
       <c r="C87" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="n">
         <v>1</v>
@@ -4271,7 +4531,7 @@
         <v>3</v>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
@@ -4286,21 +4546,24 @@
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B88" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E88" t="n">
         <v>2</v>
@@ -4315,7 +4578,7 @@
         <v>3</v>
       </c>
       <c r="I88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
@@ -4330,18 +4593,21 @@
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B89" t="n">
         <v>8</v>
       </c>
       <c r="C89" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
@@ -4356,16 +4622,16 @@
         <v>2</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K89" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L89" t="n">
         <v>1</v>
@@ -4374,24 +4640,27 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="O89" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C90" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D90" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F90" t="n">
         <v>2</v>
@@ -4400,16 +4669,16 @@
         <v>2</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -4418,21 +4687,24 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="O90" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C91" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
         <v>2</v>
@@ -4462,33 +4734,36 @@
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B92" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C92" t="n">
         <v>10</v>
       </c>
       <c r="D92" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -4497,33 +4772,36 @@
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
       <c r="M92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B93" t="n">
         <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
         <v>2</v>
@@ -4532,16 +4810,16 @@
         <v>2</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
@@ -4550,30 +4828,33 @@
         <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B94" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C94" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H94" t="n">
         <v>3</v>
@@ -4582,19 +4863,22 @@
         <v>3</v>
       </c>
       <c r="J94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -4602,25 +4886,25 @@
         <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="n">
         <v>10</v>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E95" t="n">
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -4629,36 +4913,39 @@
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N95" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B96" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -4667,7 +4954,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
@@ -4683,11 +4970,14 @@
       </c>
       <c r="N96" t="n">
         <v>4</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B97" t="n">
         <v>8</v>
@@ -4696,42 +4986,45 @@
         <v>10</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I97" t="n">
         <v>3</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K97" t="n">
         <v>1</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N97" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B98" t="n">
         <v>8</v>
@@ -4740,10 +5033,10 @@
         <v>10</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
         <v>2</v>
@@ -4755,7 +5048,7 @@
         <v>3</v>
       </c>
       <c r="I98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
@@ -4764,18 +5057,21 @@
         <v>4</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N98" t="n">
         <v>4</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B99" t="n">
         <v>8</v>
@@ -4787,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -4796,7 +5092,7 @@
         <v>2</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I99" t="n">
         <v>3</v>
@@ -4814,7 +5110,10 @@
         <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="O99" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -4831,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
         <v>2</v>
@@ -4859,11 +5158,14 @@
       </c>
       <c r="N100" t="n">
         <v>4</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B101" t="n">
         <v>8</v>
@@ -4872,7 +5174,7 @@
         <v>10</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
         <v>2</v>
@@ -4884,7 +5186,7 @@
         <v>2</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I101" t="n">
         <v>3</v>
@@ -4893,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
@@ -4903,6 +5205,9 @@
       </c>
       <c r="N101" t="n">
         <v>4</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -4910,43 +5215,46 @@
         <v>2</v>
       </c>
       <c r="B102" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C102" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D102" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -4954,13 +5262,13 @@
         <v>2</v>
       </c>
       <c r="B103" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C103" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
         <v>2</v>
@@ -4972,36 +5280,39 @@
         <v>2</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M103" t="n">
         <v>0</v>
       </c>
       <c r="N103" t="n">
         <v>4</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B104" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C104" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D104" t="n">
         <v>1</v>
@@ -5016,13 +5327,13 @@
         <v>2</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K104" t="n">
         <v>1</v>
@@ -5035,6 +5346,9 @@
       </c>
       <c r="N104" t="n">
         <v>4</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -5048,7 +5362,7 @@
         <v>7</v>
       </c>
       <c r="D105" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E105" t="n">
         <v>2</v>
@@ -5063,22 +5377,25 @@
         <v>3</v>
       </c>
       <c r="I105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
       </c>
       <c r="K105" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M105" t="n">
         <v>0</v>
       </c>
       <c r="N105" t="n">
         <v>4</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -5086,16 +5403,16 @@
         <v>2</v>
       </c>
       <c r="B106" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C106" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D106" t="n">
         <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F106" t="n">
         <v>2</v>
@@ -5110,30 +5427,33 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N106" t="n">
         <v>4</v>
+      </c>
+      <c r="O106" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B107" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C107" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D107" t="n">
         <v>1</v>
@@ -5154,36 +5474,39 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M107" t="n">
         <v>0</v>
       </c>
       <c r="N107" t="n">
         <v>4</v>
+      </c>
+      <c r="O107" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C108" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D108" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F108" t="n">
         <v>2</v>
@@ -5195,13 +5518,13 @@
         <v>3</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
       </c>
       <c r="K108" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L108" t="n">
         <v>0</v>
@@ -5211,6 +5534,9 @@
       </c>
       <c r="N108" t="n">
         <v>4</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -5218,19 +5544,19 @@
         <v>2</v>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C109" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D109" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E109" t="n">
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -5245,30 +5571,33 @@
         <v>1</v>
       </c>
       <c r="K109" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L109" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N109" t="n">
         <v>4</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B110" t="n">
         <v>9</v>
       </c>
       <c r="C110" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E110" t="n">
         <v>2</v>
@@ -5283,22 +5612,25 @@
         <v>3</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
       </c>
       <c r="K110" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M110" t="n">
         <v>0</v>
       </c>
       <c r="N110" t="n">
         <v>4</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -5306,19 +5638,19 @@
         <v>0</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D111" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -5327,7 +5659,7 @@
         <v>3</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
@@ -5343,26 +5675,29 @@
       </c>
       <c r="N111" t="n">
         <v>4</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -5380,13 +5715,157 @@
         <v>4</v>
       </c>
       <c r="L112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M112" t="n">
         <v>0</v>
       </c>
       <c r="N112" t="n">
         <v>4</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>2</v>
+      </c>
+      <c r="B113" t="n">
+        <v>9</v>
+      </c>
+      <c r="C113" t="n">
+        <v>8</v>
+      </c>
+      <c r="D113" t="n">
+        <v>2</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2</v>
+      </c>
+      <c r="G113" t="n">
+        <v>2</v>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>4</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>4</v>
+      </c>
+      <c r="O113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>4</v>
+      </c>
+      <c r="D114" t="n">
+        <v>2</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1</v>
+      </c>
+      <c r="G114" t="n">
+        <v>2</v>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>4</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>4</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2</v>
+      </c>
+      <c r="G115" t="n">
+        <v>2</v>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" t="n">
+        <v>4</v>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>4</v>
+      </c>
+      <c r="O115" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
